--- a/fuentes/contenidos/grado06/guion05/EsqueletoGuion_LE_06_05_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion05/EsqueletoGuion_LE_06_05_CO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\Lenguaje\fuentes\contenidos\grado06\guion05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9705" tabRatio="729"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20733" windowHeight="9703" tabRatio="729"/>
   </bookViews>
   <sheets>
     <sheet name="GUION" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="4" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -840,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -851,17 +856,17 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="10.7109375"/>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="10.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -877,7 +882,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -885,7 +890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -893,7 +898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -901,7 +906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -920,26 +925,26 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375"/>
-    <col min="8" max="8" width="10.7109375"/>
-    <col min="9" max="10" width="15.140625"/>
-    <col min="11" max="11" width="18.7109375"/>
-    <col min="12" max="12" width="16.28515625"/>
-    <col min="13" max="1025" width="10.7109375"/>
+    <col min="3" max="3" width="43.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875"/>
+    <col min="8" max="8" width="10.73046875"/>
+    <col min="9" max="10" width="15.1328125"/>
+    <col min="11" max="11" width="18.73046875"/>
+    <col min="12" max="12" width="16.265625"/>
+    <col min="13" max="1025" width="10.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>6</v>
       </c>
@@ -979,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>6</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>6</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1059,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1139,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1179,7 +1184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1199,7 +1204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1259,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1299,7 +1304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>6</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>6</v>
       </c>
@@ -1379,7 +1384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>6</v>
       </c>
@@ -1399,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1419,7 +1424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1439,7 +1444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1459,7 +1464,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1519,7 +1524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1579,7 +1584,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1619,7 +1624,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1639,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>6</v>
       </c>
@@ -1693,16 +1698,16 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="1025" width="10.7109375"/>
+    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="1025" width="10.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1716,7 +1721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>86</v>
       </c>
@@ -1730,7 +1735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1744,7 +1749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1771,18 +1776,18 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625"/>
-    <col min="5" max="1025" width="10.7109375"/>
+    <col min="3" max="3" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125"/>
+    <col min="5" max="1025" width="10.73046875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -1793,7 +1798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1804,7 +1809,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1815,7 +1820,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1837,7 +1842,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1903,7 +1908,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1925,7 +1930,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1936,7 +1941,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1991,7 +1996,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2013,7 +2018,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2024,7 +2029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2057,7 +2062,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2068,7 +2073,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2101,7 +2106,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2112,7 +2117,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2123,7 +2128,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2145,7 +2150,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2156,7 +2161,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2167,7 +2172,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2211,7 +2216,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2232,26 +2237,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.35" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="10.7109375" style="8"/>
+    <col min="1" max="1" width="12.265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="1025" width="10.73046875" style="8"/>
     <col min="1026" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -2280,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2296,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +2318,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -2324,7 +2329,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
@@ -2352,7 +2357,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
@@ -2363,7 +2368,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -2402,7 +2407,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -2424,7 +2429,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
@@ -2435,7 +2440,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
@@ -2446,7 +2451,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
@@ -2496,7 +2501,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -2507,7 +2512,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
         <v>20</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2590,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="8" t="s">
         <v>20</v>
       </c>
@@ -2596,7 +2601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="8" t="s">
         <v>20</v>
       </c>
@@ -2607,7 +2612,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="8" t="s">
         <v>20</v>
       </c>
@@ -2618,7 +2623,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
         <v>20</v>
       </c>
@@ -2629,7 +2634,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
         <v>20</v>
       </c>
@@ -2646,7 +2651,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
         <v>20</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="8" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +2673,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
@@ -2679,7 +2684,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
         <v>20</v>
       </c>
@@ -2690,7 +2695,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
         <v>20</v>
       </c>
@@ -2707,7 +2712,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
         <v>20</v>
       </c>
@@ -2721,7 +2726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="8" t="s">
         <v>20</v>
       </c>
@@ -2735,7 +2740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="8" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="8" t="s">
         <v>20</v>
       </c>
@@ -2763,7 +2768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
         <v>20</v>
       </c>
@@ -2783,7 +2788,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
         <v>20</v>
       </c>
@@ -2800,7 +2805,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>20</v>
       </c>
@@ -2817,7 +2822,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>20</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>20</v>
       </c>
@@ -2851,7 +2856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>20</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>20</v>
       </c>
@@ -2891,7 +2896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>20</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>20</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>20</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>20</v>
       </c>
@@ -2982,7 +2987,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>20</v>
       </c>
@@ -2999,7 +3004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>20</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>20</v>
       </c>
@@ -3033,7 +3038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
         <v>20</v>
       </c>
@@ -3056,7 +3061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
         <v>20</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="8" t="s">
         <v>20</v>
       </c>
@@ -3090,7 +3095,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="8" t="s">
         <v>20</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="8" t="s">
         <v>20</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="8" t="s">
         <v>20</v>
       </c>
@@ -3138,7 +3143,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="8" t="s">
         <v>20</v>
       </c>
@@ -3152,7 +3157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="8" t="s">
         <v>20</v>
       </c>
@@ -3166,7 +3171,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="8" t="s">
         <v>20</v>
       </c>
@@ -3180,7 +3185,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="8" t="s">
         <v>20</v>
       </c>
@@ -3200,7 +3205,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
         <v>20</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>20</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>20</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>20</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>20</v>
       </c>
@@ -3276,7 +3281,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>20</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="8" t="s">
         <v>20</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="8" t="s">
         <v>20</v>
       </c>
@@ -3327,7 +3332,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>20</v>
       </c>
@@ -3367,7 +3372,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>20</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>20</v>
       </c>
@@ -3401,7 +3406,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="8" t="s">
         <v>20</v>
       </c>
@@ -3418,7 +3423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="8" t="s">
         <v>20</v>
       </c>
@@ -3435,7 +3440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>20</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>20</v>
       </c>
@@ -3475,7 +3480,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>20</v>
       </c>
@@ -3492,7 +3497,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>20</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="8" t="s">
         <v>20</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
         <v>20</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>20</v>
       </c>
@@ -3566,7 +3571,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>20</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>20</v>
       </c>
@@ -3600,7 +3605,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3622,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="8" t="s">
         <v>20</v>
       </c>
@@ -3640,7 +3645,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A91" s="8" t="s">
         <v>20</v>
       </c>
@@ -3657,7 +3662,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A92" s="8" t="s">
         <v>20</v>
       </c>
@@ -3674,7 +3679,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A93" s="8" t="s">
         <v>20</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A94" s="8" t="s">
         <v>20</v>
       </c>
@@ -3708,7 +3713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>20</v>
       </c>
@@ -3731,7 +3736,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A96" s="8" t="s">
         <v>20</v>
       </c>
@@ -3745,7 +3750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A97" s="8" t="s">
         <v>20</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>20</v>
       </c>
@@ -3773,7 +3778,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>20</v>
       </c>
@@ -3787,7 +3792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>20</v>
       </c>
@@ -3807,7 +3812,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>20</v>
       </c>
@@ -3818,7 +3823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A102" s="8" t="s">
         <v>20</v>
       </c>
@@ -3829,7 +3834,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A103" s="8" t="s">
         <v>20</v>
       </c>
@@ -3840,7 +3845,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>20</v>
       </c>
@@ -3851,7 +3856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>20</v>
       </c>
@@ -3868,7 +3873,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>20</v>
       </c>
@@ -3882,7 +3887,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="8" t="s">
         <v>20</v>
       </c>
@@ -3896,7 +3901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A108" s="8" t="s">
         <v>20</v>
       </c>
@@ -3910,7 +3915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A109" s="8" t="s">
         <v>20</v>
       </c>
@@ -3924,7 +3929,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A110" s="8" t="s">
         <v>20</v>
       </c>
@@ -3944,7 +3949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>20</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>20</v>
       </c>
@@ -3972,7 +3977,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>20</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A114" s="8" t="s">
         <v>20</v>
       </c>
@@ -4000,7 +4005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A115" s="8" t="s">
         <v>20</v>
       </c>
@@ -4020,7 +4025,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A116" s="8" t="s">
         <v>20</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A117" s="8" t="s">
         <v>20</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A118" s="8" t="s">
         <v>20</v>
       </c>
@@ -4062,7 +4067,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A119" s="8" t="s">
         <v>20</v>
       </c>
@@ -4076,7 +4081,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A120" s="8" t="s">
         <v>20</v>
       </c>
@@ -4096,7 +4101,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A121" s="8" t="s">
         <v>20</v>
       </c>
@@ -4110,7 +4115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A122" s="8" t="s">
         <v>20</v>
       </c>
@@ -4124,7 +4129,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A123" s="8" t="s">
         <v>20</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="8" t="s">
         <v>20</v>
       </c>
@@ -4152,7 +4157,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A125" s="8" t="s">
         <v>20</v>
       </c>
@@ -4166,7 +4171,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A126" s="8" t="s">
         <v>20</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A127" s="8" t="s">
         <v>20</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A128" s="8" t="s">
         <v>20</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A129" s="8" t="s">
         <v>20</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A130" s="8" t="s">
         <v>20</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A131" s="8" t="s">
         <v>20</v>
       </c>
@@ -4256,7 +4261,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A132" s="8" t="s">
         <v>20</v>
       </c>
@@ -4270,7 +4275,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A133" s="8" t="s">
         <v>20</v>
       </c>
@@ -4284,7 +4289,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A134" s="8" t="s">
         <v>20</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A135" s="8" t="s">
         <v>20</v>
       </c>
@@ -4312,7 +4317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A136" s="8" t="s">
         <v>20</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A137" s="8" t="s">
         <v>20</v>
       </c>
@@ -4340,7 +4345,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A138" s="8" t="s">
         <v>20</v>
       </c>
@@ -4360,7 +4365,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A139" s="8" t="s">
         <v>20</v>
       </c>
@@ -4374,7 +4379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A140" s="8" t="s">
         <v>20</v>
       </c>
@@ -4388,7 +4393,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" s="8" t="s">
         <v>20</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A142" s="8" t="s">
         <v>20</v>
       </c>
@@ -4416,7 +4421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A143" s="8" t="s">
         <v>20</v>
       </c>
@@ -4436,7 +4441,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A144" s="8" t="s">
         <v>20</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A145" s="8" t="s">
         <v>20</v>
       </c>
@@ -4464,7 +4469,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A146" s="8" t="s">
         <v>20</v>
       </c>
@@ -4478,7 +4483,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A147" s="8" t="s">
         <v>20</v>
       </c>
@@ -4492,7 +4497,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A148" s="8" t="s">
         <v>20</v>
       </c>
@@ -4512,7 +4517,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A149" s="8" t="s">
         <v>20</v>
       </c>
@@ -4526,7 +4531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A150" s="8" t="s">
         <v>20</v>
       </c>
@@ -4540,7 +4545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A151" s="8" t="s">
         <v>20</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A152" s="8" t="s">
         <v>20</v>
       </c>
@@ -4568,7 +4573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A153" s="8" t="s">
         <v>20</v>
       </c>
@@ -4588,7 +4593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A154" s="8" t="s">
         <v>20</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A155" s="8" t="s">
         <v>20</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A156" s="8" t="s">
         <v>20</v>
       </c>
@@ -4630,7 +4635,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A157" s="8" t="s">
         <v>20</v>
       </c>
@@ -4644,7 +4649,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="8" t="s">
         <v>20</v>
       </c>
@@ -4664,7 +4669,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A159" s="8" t="s">
         <v>20</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A160" s="8" t="s">
         <v>20</v>
       </c>
@@ -4686,7 +4691,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161" s="8" t="s">
         <v>20</v>
       </c>
@@ -4697,7 +4702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162" s="8" t="s">
         <v>20</v>
       </c>
@@ -4708,7 +4713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163" s="8" t="s">
         <v>20</v>
       </c>
@@ -4725,7 +4730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164" s="8" t="s">
         <v>20</v>
       </c>
@@ -4736,7 +4741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165" s="8" t="s">
         <v>20</v>
       </c>
@@ -4747,7 +4752,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166" s="8" t="s">
         <v>20</v>
       </c>
@@ -4758,7 +4763,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167" s="8" t="s">
         <v>20</v>
       </c>
@@ -4769,7 +4774,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168" s="8" t="s">
         <v>20</v>
       </c>
@@ -4786,7 +4791,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169" s="8" t="s">
         <v>20</v>
       </c>
@@ -4797,7 +4802,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170" s="8" t="s">
         <v>20</v>
       </c>
@@ -4808,7 +4813,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171" s="8" t="s">
         <v>20</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172" s="8" t="s">
         <v>20</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173" s="8" t="s">
         <v>20</v>
       </c>
@@ -4847,7 +4852,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174" s="8" t="s">
         <v>20</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" s="8" t="s">
         <v>20</v>
       </c>
@@ -4869,7 +4874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176" s="8" t="s">
         <v>20</v>
       </c>
@@ -4880,7 +4885,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A177" s="8" t="s">
         <v>20</v>
       </c>
@@ -4891,7 +4896,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A178" s="8" t="s">
         <v>20</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A179" s="8" t="s">
         <v>20</v>
       </c>
@@ -4922,7 +4927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A180" s="8" t="s">
         <v>20</v>
       </c>
